--- a/maintenance/Furnace63_Maintenance_Tracker_Template.xlsx
+++ b/maintenance/Furnace63_Maintenance_Tracker_Template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>Last Done Furnace Hours</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Last_Done_Draw</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -603,7 +608,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -612,6 +617,7 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -681,7 +687,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -690,6 +696,7 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -759,7 +766,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -768,6 +775,7 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,7 +845,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -846,6 +854,7 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -930,6 +939,7 @@
       <c r="T6" t="n">
         <v>0</v>
       </c>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1014,6 +1024,7 @@
       <c r="T7" t="n">
         <v>0</v>
       </c>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1102,6 +1113,7 @@
       <c r="T8" t="n">
         <v>0</v>
       </c>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1190,6 +1202,7 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1278,6 +1291,7 @@
       <c r="T10" t="n">
         <v>0</v>
       </c>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1366,6 +1380,7 @@
       <c r="T11" t="n">
         <v>0</v>
       </c>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1454,6 +1469,7 @@
       <c r="T12" t="n">
         <v>0</v>
       </c>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1523,7 +1539,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1532,6 +1548,7 @@
       <c r="T13" t="n">
         <v>0</v>
       </c>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1601,7 +1618,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1610,6 +1627,7 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1692,6 +1710,7 @@
       <c r="T15" t="n">
         <v>0</v>
       </c>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1774,6 +1793,7 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
+      <c r="U16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/maintenance/Furnace63_Maintenance_Tracker_Template.xlsx
+++ b/maintenance/Furnace63_Maintenance_Tracker_Template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,11 @@
           <t>Last_Done_Draw</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Tracking_Mode_norm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -618,6 +623,11 @@
         <v>0</v>
       </c>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -687,7 +697,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -697,6 +707,11 @@
         <v>0</v>
       </c>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -776,6 +791,11 @@
         <v>0</v>
       </c>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -845,7 +865,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -855,6 +875,11 @@
         <v>0</v>
       </c>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -940,6 +965,11 @@
         <v>0</v>
       </c>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>calendar</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1025,6 +1055,11 @@
         <v>0</v>
       </c>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>calendar</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1114,6 +1149,11 @@
         <v>0</v>
       </c>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1203,6 +1243,11 @@
         <v>0</v>
       </c>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1292,6 +1337,11 @@
         <v>0</v>
       </c>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1381,6 +1431,11 @@
         <v>0</v>
       </c>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1470,6 +1525,11 @@
         <v>0</v>
       </c>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1539,7 +1599,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1549,6 +1609,11 @@
         <v>0</v>
       </c>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1618,7 +1683,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1628,6 +1693,11 @@
         <v>0</v>
       </c>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1711,6 +1781,11 @@
         <v>0</v>
       </c>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1794,6 +1869,11 @@
         <v>0</v>
       </c>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
